--- a/src/analysis_examples/circadb/results_jtk/cosinor_10410460_ube2ql1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10410460_ube2ql1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2641290774173373, 0.3978747897321953]</t>
+          <t>[0.26477940678760475, 0.3972244603619279]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.164628615768493e-09</v>
+        <v>9.796188304989073e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.164628615768493e-09</v>
+        <v>9.796188304989073e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-1.05663176336954</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.48063959032639236, 0.5521964262547575]</t>
+          <t>[0.4806179685190506, 0.5522180480620993]</t>
         </is>
       </c>
       <c r="U2" t="n">
